--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T09:43:54+00:00</t>
+    <t>2023-02-21T09:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/ValueSet/MeltingPotVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/ValueSet/MeltingPotVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T09:45:20+00:00</t>
+    <t>2023-02-23T14:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,7 +116,7 @@
     <t>C01</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/CodeSystem/competence-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/CodeSystem/competence-code-system</t>
   </si>
   <si>
     <t>Codes</t>
@@ -125,7 +125,7 @@
     <t>All codes</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/CodeSystem/type-carte-code-system</t>
   </si>
 </sst>
 </file>

--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:52:39+00:00</t>
+    <t>2023-02-23T15:30:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:30:58+00:00</t>
+    <t>2023-02-23T15:32:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:32:18+00:00</t>
+    <t>2023-03-17T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:29:45+00:00</t>
+    <t>2023-03-19T15:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:31:53+00:00</t>
+    <t>2023-03-25T16:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
